--- a/docentes/Rivera Serra Alma Lilian - Estadisticos 20211.xlsx
+++ b/docentes/Rivera Serra Alma Lilian - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>Mat</t>
   </si>
@@ -71,24 +71,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>DEGANTE</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>BERNAL</t>
-  </si>
-  <si>
-    <t>SHARITH</t>
-  </si>
-  <si>
-    <t>DIEGO OLLIN</t>
   </si>
 </sst>
 </file>
@@ -492,16 +474,19 @@
         <v>31</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>31</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>7.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -515,16 +500,19 @@
         <v>34</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>34</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +571,7 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -606,7 +594,7 @@
         <v>34</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -668,16 +656,19 @@
         <v>31</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>31</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>7.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -691,16 +682,19 @@
         <v>34</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>34</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +704,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -743,52 +737,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920319</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920336</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
